--- a/src/test/report/TestLog.xlsx
+++ b/src/test/report/TestLog.xlsx
@@ -135,7 +135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -167,19 +167,6 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -217,17 +204,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -295,17 +271,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -326,19 +291,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -421,11 +373,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -433,17 +502,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -455,16 +524,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -476,16 +542,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -494,41 +572,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <b/>
@@ -577,8 +637,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="5"/>
-      <tableStyleElement type="headerRow" dxfId="4"/>
+      <tableStyleElement type="wholeTable" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -858,15 +918,16 @@
   <dimension ref="A1:AA997"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" style="6" customWidth="1"/>
     <col min="2" max="2" width="17.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.90625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="14.453125" style="6"/>
+    <col min="3" max="3" width="81.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.453125" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="14.453125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -909,17 +970,17 @@
       <c r="AA1" s="5"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -944,15 +1005,15 @@
       <c r="AA2" s="5"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12">
+      <c r="A3" s="25"/>
+      <c r="B3" s="10">
         <v>2</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -977,15 +1038,15 @@
       <c r="AA3" s="5"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12">
+      <c r="A4" s="25"/>
+      <c r="B4" s="10">
         <v>3</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -1010,15 +1071,15 @@
       <c r="AA4" s="5"/>
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12">
+      <c r="A5" s="25"/>
+      <c r="B5" s="10">
         <v>4</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -1043,15 +1104,15 @@
       <c r="AA5" s="5"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12">
+      <c r="A6" s="25"/>
+      <c r="B6" s="10">
         <v>5</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -1076,15 +1137,15 @@
       <c r="AA6" s="5"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12">
+      <c r="A7" s="25"/>
+      <c r="B7" s="10">
         <v>6</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -1109,15 +1170,15 @@
       <c r="AA7" s="5"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15">
+      <c r="A8" s="26"/>
+      <c r="B8" s="12">
         <v>7</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -1142,17 +1203,17 @@
       <c r="AA8" s="5"/>
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="18">
         <v>8</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="20"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="15"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -1177,15 +1238,15 @@
       <c r="AA9" s="5"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
-      <c r="B10" s="12">
+      <c r="A10" s="28"/>
+      <c r="B10" s="19">
         <v>9</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="22"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -1210,15 +1271,15 @@
       <c r="AA10" s="5"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="21"/>
-      <c r="B11" s="12">
+      <c r="A11" s="28"/>
+      <c r="B11" s="20">
         <v>10</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="22"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -1243,17 +1304,17 @@
       <c r="AA11" s="5"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="18">
         <v>11</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="20"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -1278,15 +1339,15 @@
       <c r="AA12" s="5"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="21"/>
-      <c r="B13" s="12">
+      <c r="A13" s="28"/>
+      <c r="B13" s="19">
         <v>12</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="22"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1311,15 +1372,15 @@
       <c r="AA13" s="5"/>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="21"/>
-      <c r="B14" s="12">
+      <c r="A14" s="28"/>
+      <c r="B14" s="19">
         <v>13</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="22"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -1344,15 +1405,15 @@
       <c r="AA14" s="5"/>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="21"/>
-      <c r="B15" s="12">
+      <c r="A15" s="28"/>
+      <c r="B15" s="19">
         <v>14</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="22"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -1377,15 +1438,15 @@
       <c r="AA15" s="5"/>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="21"/>
-      <c r="B16" s="12">
+      <c r="A16" s="28"/>
+      <c r="B16" s="19">
         <v>15</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="22"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -1410,15 +1471,15 @@
       <c r="AA16" s="5"/>
     </row>
     <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="21"/>
-      <c r="B17" s="12">
+      <c r="A17" s="28"/>
+      <c r="B17" s="21">
         <v>16</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="22"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -1442,16 +1503,16 @@
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
     </row>
-    <row r="18" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="21"/>
-      <c r="B18" s="15">
+    <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="28"/>
+      <c r="B18" s="23">
         <v>17</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="22"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -1476,15 +1537,15 @@
       <c r="AA18" s="5"/>
     </row>
     <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="21"/>
-      <c r="B19" s="19">
+      <c r="A19" s="28"/>
+      <c r="B19" s="22">
         <v>18</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="22"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -1509,15 +1570,15 @@
       <c r="AA19" s="5"/>
     </row>
     <row r="20" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="23"/>
-      <c r="B20" s="12">
+      <c r="A20" s="29"/>
+      <c r="B20" s="20">
         <v>19</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="24"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="17"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -1600,13 +1661,13 @@
       <c r="AA22" s="5"/>
     </row>
     <row r="23" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -1631,11 +1692,11 @@
       <c r="AA23" s="5"/>
     </row>
     <row r="24" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -29878,18 +29939,18 @@
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A23:E23"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A20"/>
+    <mergeCell ref="A23:E24"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:E20">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$D2="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:E20">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>$D2="Fail"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/src/test/report/TestLog.xlsx
+++ b/src/test/report/TestLog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bao\Desktop\Codes\Java\SE 6362\Ciberminer\src\test\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bao\Desktop\Codes\Java\SE 6362\Cyberminer\src\test\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Test Suite</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>NOTE: the results shall be able to be sorted by how often the item is accessed, but cannot be performed via automation because the system may be run without the automation script, therefore the script does not know which item from the results is the most frequent.</t>
+  </si>
+  <si>
+    <t>Verify able to reject adding an already existed URL in the database</t>
   </si>
 </sst>
 </file>
@@ -917,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA997"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1270,13 +1273,13 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
     </row>
-    <row r="11" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="28"/>
-      <c r="B11" s="20">
+      <c r="B11" s="21">
         <v>10</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="16"/>
@@ -1303,18 +1306,16 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
     </row>
-    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="18">
+    <row r="12" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="28"/>
+      <c r="B12" s="20">
         <v>11</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>18</v>
+      <c r="C12" s="16" t="s">
+        <v>16</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="15"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -1339,15 +1340,17 @@
       <c r="AA12" s="5"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="28"/>
-      <c r="B13" s="19">
+      <c r="A13" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="18">
         <v>12</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>19</v>
+      <c r="C13" s="15" t="s">
+        <v>18</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="16"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1377,7 +1380,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="16"/>
@@ -1410,7 +1413,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="16"/>
@@ -1443,7 +1446,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="16"/>
@@ -1472,11 +1475,11 @@
     </row>
     <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="28"/>
-      <c r="B17" s="21">
+      <c r="B17" s="19">
         <v>16</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="16"/>
@@ -1505,11 +1508,11 @@
     </row>
     <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="28"/>
-      <c r="B18" s="23">
+      <c r="B18" s="21">
         <v>17</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="16"/>
@@ -1538,11 +1541,11 @@
     </row>
     <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="28"/>
-      <c r="B19" s="22">
+      <c r="B19" s="23">
         <v>18</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="16"/>
@@ -1569,16 +1572,16 @@
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
     </row>
-    <row r="20" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="29"/>
-      <c r="B20" s="20">
+    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="28"/>
+      <c r="B20" s="22">
         <v>19</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>26</v>
+      <c r="C20" s="16" t="s">
+        <v>25</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="17"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -1602,12 +1605,16 @@
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
     </row>
-    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+    <row r="21" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="29"/>
+      <c r="B21" s="20">
+        <v>20</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="17"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -1631,7 +1638,7 @@
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
     </row>
-    <row r="22" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -29940,16 +29947,16 @@
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A21"/>
     <mergeCell ref="A23:E24"/>
   </mergeCells>
-  <conditionalFormatting sqref="B2:E20">
+  <conditionalFormatting sqref="B2:E21">
     <cfRule type="expression" dxfId="1" priority="3">
       <formula>$D2="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:E20">
+  <conditionalFormatting sqref="B2:E21">
     <cfRule type="expression" dxfId="0" priority="5">
       <formula>$D2="Fail"</formula>
     </cfRule>

--- a/src/test/report/TestLog.xlsx
+++ b/src/test/report/TestLog.xlsx
@@ -497,9 +497,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -530,103 +527,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <b/>
@@ -675,8 +583,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="11"/>
-      <tableStyleElement type="headerRow" dxfId="10"/>
+      <tableStyleElement type="wholeTable" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -956,7 +864,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -968,7 +876,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1199,11 +1107,11 @@
       <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -1263,11 +1171,11 @@
       <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1295,11 +1203,11 @@
       <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="22"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1391,11 +1299,11 @@
       <c r="A14" s="14">
         <v>13</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="20"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -1423,11 +1331,11 @@
       <c r="A15" s="12">
         <v>14</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="22"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1647,11 +1555,11 @@
       <c r="A22" s="13">
         <v>21</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="8"/>
-      <c r="D22" s="17"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1679,11 +1587,11 @@
       <c r="A23" s="15">
         <v>22</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="17"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1708,13 +1616,13 @@
       <c r="Z23" s="4"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="18">
+      <c r="A24" s="17">
         <v>23</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="24"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="11"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -1768,12 +1676,12 @@
       <c r="Z25" s="4"/>
     </row>
     <row r="26" spans="1:26" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -1798,10 +1706,10 @@
       <c r="Z26" s="4"/>
     </row>
     <row r="27" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>

--- a/src/test/report/TestLog.xlsx
+++ b/src/test/report/TestLog.xlsx
@@ -527,9 +527,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -542,34 +539,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <b val="0"/>
@@ -620,8 +597,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="5"/>
-      <tableStyleElement type="headerRow" dxfId="4"/>
+      <tableStyleElement type="wholeTable" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -901,29 +878,29 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.7265625" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.453125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="118.6328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="89.81640625" style="2" customWidth="1"/>
     <col min="5" max="16384" width="14.453125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="1"/>
@@ -1714,12 +1691,12 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1744,10 +1721,10 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -29020,12 +28997,12 @@
     <mergeCell ref="A26:D27"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:D24">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$C2="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:D24">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>$C2="Fail"</formula>
     </cfRule>
   </conditionalFormatting>
